--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd79a</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.128111</v>
+      </c>
+      <c r="I2">
+        <v>0.006976065356144797</v>
+      </c>
+      <c r="J2">
+        <v>0.007176859668027315</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.242421</v>
-      </c>
-      <c r="H2">
-        <v>0.727263</v>
-      </c>
-      <c r="I2">
-        <v>0.05259686455245877</v>
-      </c>
-      <c r="J2">
-        <v>0.05259686455245876</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.500487</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="N2">
-        <v>1.501461</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="O2">
-        <v>0.168778286061727</v>
+        <v>0.08571736056515281</v>
       </c>
       <c r="P2">
-        <v>0.1791595355978303</v>
+        <v>0.09660500428308474</v>
       </c>
       <c r="Q2">
-        <v>0.121328559027</v>
+        <v>0.01240898804011111</v>
       </c>
       <c r="R2">
-        <v>1.091957031243</v>
+        <v>0.111680892361</v>
       </c>
       <c r="S2">
-        <v>0.008877208651384796</v>
+        <v>0.0005979699094587347</v>
       </c>
       <c r="T2">
-        <v>0.009423229827120492</v>
+        <v>0.0006933205589688769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.242421</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="H3">
-        <v>0.727263</v>
+        <v>0.128111</v>
       </c>
       <c r="I3">
-        <v>0.05259686455245877</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="J3">
-        <v>0.05259686455245876</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.606916</v>
       </c>
       <c r="O3">
-        <v>0.5178605281857785</v>
+        <v>0.4529879287381047</v>
       </c>
       <c r="P3">
-        <v>0.5497132000752692</v>
+        <v>0.5105255284041104</v>
       </c>
       <c r="Q3">
-        <v>0.372271061212</v>
+        <v>0.06557740174177777</v>
       </c>
       <c r="R3">
-        <v>3.350439550908</v>
+        <v>0.590196615676</v>
       </c>
       <c r="S3">
-        <v>0.02723784005805215</v>
+        <v>0.00316007339642168</v>
       </c>
       <c r="T3">
-        <v>0.0289131907270576</v>
+        <v>0.003663970074301793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.242421</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="H4">
-        <v>0.727263</v>
+        <v>0.128111</v>
       </c>
       <c r="I4">
-        <v>0.05259686455245877</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="J4">
-        <v>0.05259686455245876</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2105693333333333</v>
+        <v>0.3897316666666666</v>
       </c>
       <c r="N4">
-        <v>0.6317079999999999</v>
+        <v>1.169195</v>
       </c>
       <c r="O4">
-        <v>0.07100989871297453</v>
+        <v>0.1149643755911652</v>
       </c>
       <c r="P4">
-        <v>0.07537759016946438</v>
+        <v>0.1295669153035228</v>
       </c>
       <c r="Q4">
-        <v>0.05104642835599999</v>
+        <v>0.01664297118277778</v>
       </c>
       <c r="R4">
-        <v>0.459417855204</v>
+        <v>0.149786740645</v>
       </c>
       <c r="S4">
-        <v>0.003734898024490137</v>
+        <v>0.0008019989977523459</v>
       </c>
       <c r="T4">
-        <v>0.003964624900434065</v>
+        <v>0.0009298835687525637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.242421</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="H5">
-        <v>0.727263</v>
+        <v>0.128111</v>
       </c>
       <c r="I5">
-        <v>0.05259686455245877</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="J5">
-        <v>0.05259686455245876</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5154745000000001</v>
+        <v>1.1461935</v>
       </c>
       <c r="N5">
-        <v>1.030949</v>
+        <v>2.292387</v>
       </c>
       <c r="O5">
-        <v>0.1738324923894641</v>
+        <v>0.3381080658935905</v>
       </c>
       <c r="P5">
-        <v>0.1230164113920026</v>
+        <v>0.2540359069889083</v>
       </c>
       <c r="Q5">
-        <v>0.1249618437645</v>
+        <v>0.0489466651595</v>
       </c>
       <c r="R5">
-        <v>0.7497710625870001</v>
+        <v>0.293679990957</v>
       </c>
       <c r="S5">
-        <v>0.009143044057024962</v>
+        <v>0.002358663965113399</v>
       </c>
       <c r="T5">
-        <v>0.006470277527714704</v>
+        <v>0.001823180055099434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.242421</v>
+        <v>0.04270366666666667</v>
       </c>
       <c r="H6">
-        <v>0.727263</v>
+        <v>0.128111</v>
       </c>
       <c r="I6">
-        <v>0.05259686455245877</v>
+        <v>0.006976065356144797</v>
       </c>
       <c r="J6">
-        <v>0.05259686455245876</v>
+        <v>0.007176859668027315</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2031823333333334</v>
+        <v>0.02787366666666667</v>
       </c>
       <c r="N6">
-        <v>0.6095470000000001</v>
+        <v>0.083621</v>
       </c>
       <c r="O6">
-        <v>0.06851879465005588</v>
+        <v>0.008222269211986729</v>
       </c>
       <c r="P6">
-        <v>0.07273326276543358</v>
+        <v>0.009266645020373741</v>
       </c>
       <c r="Q6">
-        <v>0.04925566442900001</v>
+        <v>0.001190307770111111</v>
       </c>
       <c r="R6">
-        <v>0.443300979861</v>
+        <v>0.010712769931</v>
       </c>
       <c r="S6">
-        <v>0.003603873761506725</v>
+        <v>5.73590873986366E-05</v>
       </c>
       <c r="T6">
-        <v>0.003825541570131902</v>
+        <v>6.650541090464646E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07261366666666666</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="H7">
         <v>0.217841</v>
       </c>
       <c r="I7">
-        <v>0.01575462187815435</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="J7">
-        <v>0.01575462187815435</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.500487</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="N7">
-        <v>1.501461</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="O7">
-        <v>0.168778286061727</v>
+        <v>0.08571736056515281</v>
       </c>
       <c r="P7">
-        <v>0.1791595355978303</v>
+        <v>0.09660500428308474</v>
       </c>
       <c r="Q7">
-        <v>0.036342196189</v>
+        <v>0.02110034551011111</v>
       </c>
       <c r="R7">
-        <v>0.3270797657009999</v>
+        <v>0.189903109591</v>
       </c>
       <c r="S7">
-        <v>0.002659038078145478</v>
+        <v>0.001016792961154001</v>
       </c>
       <c r="T7">
-        <v>0.00282259073920955</v>
+        <v>0.001178927991244617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07261366666666666</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="H8">
         <v>0.217841</v>
       </c>
       <c r="I8">
-        <v>0.01575462187815435</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="J8">
-        <v>0.01575462187815435</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.606916</v>
       </c>
       <c r="O8">
-        <v>0.5178605281857785</v>
+        <v>0.4529879287381047</v>
       </c>
       <c r="P8">
-        <v>0.5497132000752692</v>
+        <v>0.5105255284041104</v>
       </c>
       <c r="Q8">
         <v>0.1115083542617778</v>
@@ -948,10 +948,10 @@
         <v>1.003575188356</v>
       </c>
       <c r="S8">
-        <v>0.008158696807188235</v>
+        <v>0.005373414841425759</v>
       </c>
       <c r="T8">
-        <v>0.008660523608616078</v>
+        <v>0.006230244904465478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07261366666666666</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="H9">
         <v>0.217841</v>
       </c>
       <c r="I9">
-        <v>0.01575462187815435</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="J9">
-        <v>0.01575462187815435</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2105693333333333</v>
+        <v>0.3897316666666666</v>
       </c>
       <c r="N9">
-        <v>0.6317079999999999</v>
+        <v>1.169195</v>
       </c>
       <c r="O9">
-        <v>0.07100989871297453</v>
+        <v>0.1149643755911652</v>
       </c>
       <c r="P9">
-        <v>0.07537759016946438</v>
+        <v>0.1295669153035228</v>
       </c>
       <c r="Q9">
-        <v>0.01529021138088888</v>
+        <v>0.02829984533277778</v>
       </c>
       <c r="R9">
-        <v>0.137611902428</v>
+        <v>0.254698607995</v>
       </c>
       <c r="S9">
-        <v>0.001118734103828953</v>
+        <v>0.001363725704032978</v>
       </c>
       <c r="T9">
-        <v>0.001187545431206396</v>
+        <v>0.001581181682296034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07261366666666666</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="H10">
         <v>0.217841</v>
       </c>
       <c r="I10">
-        <v>0.01575462187815435</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="J10">
-        <v>0.01575462187815435</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5154745000000001</v>
+        <v>1.1461935</v>
       </c>
       <c r="N10">
-        <v>1.030949</v>
+        <v>2.292387</v>
       </c>
       <c r="O10">
-        <v>0.1738324923894641</v>
+        <v>0.3381080658935905</v>
       </c>
       <c r="P10">
-        <v>0.1230164113920026</v>
+        <v>0.2540359069889083</v>
       </c>
       <c r="Q10">
-        <v>0.03743049351816666</v>
+        <v>0.0832293127445</v>
       </c>
       <c r="R10">
-        <v>0.224582961109</v>
+        <v>0.4993758764669999</v>
       </c>
       <c r="S10">
-        <v>0.002738665187733151</v>
+        <v>0.004010691641032136</v>
       </c>
       <c r="T10">
-        <v>0.00193807704628848</v>
+        <v>0.003100150388201761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07261366666666666</v>
+        <v>0.07261366666666667</v>
       </c>
       <c r="H11">
         <v>0.217841</v>
       </c>
       <c r="I11">
-        <v>0.01575462187815435</v>
+        <v>0.01186215901248089</v>
       </c>
       <c r="J11">
-        <v>0.01575462187815435</v>
+        <v>0.01220359131489676</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2031823333333334</v>
+        <v>0.02787366666666667</v>
       </c>
       <c r="N11">
-        <v>0.6095470000000001</v>
+        <v>0.083621</v>
       </c>
       <c r="O11">
-        <v>0.06851879465005588</v>
+        <v>0.008222269211986729</v>
       </c>
       <c r="P11">
-        <v>0.07273326276543358</v>
+        <v>0.009266645020373741</v>
       </c>
       <c r="Q11">
-        <v>0.01475381422522222</v>
+        <v>0.002024009140111111</v>
       </c>
       <c r="R11">
-        <v>0.132784328027</v>
+        <v>0.018216082261</v>
       </c>
       <c r="S11">
-        <v>0.001079487701258536</v>
+        <v>9.75338648360125E-05</v>
       </c>
       <c r="T11">
-        <v>0.001145885052833849</v>
+        <v>0.0001130863486888643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.127632</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="H12">
-        <v>9.382896000000001</v>
+        <v>14.085534</v>
       </c>
       <c r="I12">
-        <v>0.6785865773754572</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="J12">
-        <v>0.6785865773754572</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.500487</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="N12">
-        <v>1.501461</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="O12">
-        <v>0.168778286061727</v>
+        <v>0.08571736056515281</v>
       </c>
       <c r="P12">
-        <v>0.1791595355978303</v>
+        <v>0.09660500428308474</v>
       </c>
       <c r="Q12">
-        <v>1.565339156784</v>
+        <v>1.364342038892666</v>
       </c>
       <c r="R12">
-        <v>14.088052411056</v>
+        <v>12.279078350034</v>
       </c>
       <c r="S12">
-        <v>0.1145306794739232</v>
+        <v>0.06574552919466656</v>
       </c>
       <c r="T12">
-        <v>0.121575256065508</v>
+        <v>0.07622913181737025</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.127632</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="H13">
-        <v>9.382896000000001</v>
+        <v>14.085534</v>
       </c>
       <c r="I13">
-        <v>0.6785865773754572</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="J13">
-        <v>0.6785865773754572</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.606916</v>
       </c>
       <c r="O13">
-        <v>0.5178605281857785</v>
+        <v>0.4529879287381047</v>
       </c>
       <c r="P13">
-        <v>0.5497132000752692</v>
+        <v>0.5105255284041104</v>
       </c>
       <c r="Q13">
-        <v>4.802912634304001</v>
+        <v>7.210096883682666</v>
       </c>
       <c r="R13">
-        <v>43.226213708736</v>
+        <v>64.890871953144</v>
       </c>
       <c r="S13">
-        <v>0.351413203379434</v>
+        <v>0.3474433988322084</v>
       </c>
       <c r="T13">
-        <v>0.3730279989771869</v>
+        <v>0.4028457748090362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.127632</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="H14">
-        <v>9.382896000000001</v>
+        <v>14.085534</v>
       </c>
       <c r="I14">
-        <v>0.6785865773754572</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="J14">
-        <v>0.6785865773754572</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2105693333333333</v>
+        <v>0.3897316666666666</v>
       </c>
       <c r="N14">
-        <v>0.6317079999999999</v>
+        <v>1.169195</v>
       </c>
       <c r="O14">
-        <v>0.07100989871297453</v>
+        <v>0.1149643755911652</v>
       </c>
       <c r="P14">
-        <v>0.07537759016946438</v>
+        <v>0.1295669153035228</v>
       </c>
       <c r="Q14">
-        <v>0.658583385152</v>
+        <v>1.829859547236666</v>
       </c>
       <c r="R14">
-        <v>5.927250466368</v>
+        <v>16.46873592513</v>
       </c>
       <c r="S14">
-        <v>0.04818636412741528</v>
+        <v>0.08817809673491417</v>
       </c>
       <c r="T14">
-        <v>0.05115022092390675</v>
+        <v>0.1022387353443933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.127632</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="H15">
-        <v>9.382896000000001</v>
+        <v>14.085534</v>
       </c>
       <c r="I15">
-        <v>0.6785865773754572</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="J15">
-        <v>0.6785865773754572</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5154745000000001</v>
+        <v>1.1461935</v>
       </c>
       <c r="N15">
-        <v>1.030949</v>
+        <v>2.292387</v>
       </c>
       <c r="O15">
-        <v>0.1738324923894641</v>
+        <v>0.3381080658935905</v>
       </c>
       <c r="P15">
-        <v>0.1230164113920026</v>
+        <v>0.2540359069889083</v>
       </c>
       <c r="Q15">
-        <v>1.612214541384</v>
+        <v>5.381582504942998</v>
       </c>
       <c r="R15">
-        <v>9.673287248304002</v>
+        <v>32.28949502965799</v>
       </c>
       <c r="S15">
-        <v>0.1179603960472117</v>
+        <v>0.259330123683209</v>
       </c>
       <c r="T15">
-        <v>0.08347728556751023</v>
+        <v>0.2004547982158047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.127632</v>
+        <v>4.695177999999999</v>
       </c>
       <c r="H16">
-        <v>9.382896000000001</v>
+        <v>14.085534</v>
       </c>
       <c r="I16">
-        <v>0.6785865773754572</v>
+        <v>0.7670036590160066</v>
       </c>
       <c r="J16">
-        <v>0.6785865773754572</v>
+        <v>0.7890805697186616</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2031823333333334</v>
+        <v>0.02787366666666667</v>
       </c>
       <c r="N16">
-        <v>0.6095470000000001</v>
+        <v>0.083621</v>
       </c>
       <c r="O16">
-        <v>0.06851879465005588</v>
+        <v>0.008222269211986729</v>
       </c>
       <c r="P16">
-        <v>0.07273326276543358</v>
+        <v>0.009266645020373741</v>
       </c>
       <c r="Q16">
-        <v>0.6354795675680001</v>
+        <v>0.1308718265126667</v>
       </c>
       <c r="R16">
-        <v>5.719316108112001</v>
+        <v>1.177846438614</v>
       </c>
       <c r="S16">
-        <v>0.04649593434747321</v>
+        <v>0.006306510571008479</v>
       </c>
       <c r="T16">
-        <v>0.04935581584134536</v>
+        <v>0.00731212953205711</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.166372333333333</v>
+        <v>0.5137985</v>
       </c>
       <c r="H17">
-        <v>3.499117</v>
+        <v>1.027597</v>
       </c>
       <c r="I17">
-        <v>0.2530619361939296</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="J17">
-        <v>0.2530619361939296</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.500487</v>
+        <v>0.2905836666666666</v>
       </c>
       <c r="N17">
-        <v>1.501461</v>
+        <v>0.8717509999999999</v>
       </c>
       <c r="O17">
-        <v>0.168778286061727</v>
+        <v>0.08571736056515281</v>
       </c>
       <c r="P17">
-        <v>0.1791595355978303</v>
+        <v>0.09660500428308474</v>
       </c>
       <c r="Q17">
-        <v>0.583754189993</v>
+        <v>0.1493014520578333</v>
       </c>
       <c r="R17">
-        <v>5.253787709937</v>
+        <v>0.895808712347</v>
       </c>
       <c r="S17">
-        <v>0.04271135985827357</v>
+        <v>0.007194605674572059</v>
       </c>
       <c r="T17">
-        <v>0.04533845896599219</v>
+        <v>0.005561225237760544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.166372333333333</v>
+        <v>0.5137985</v>
       </c>
       <c r="H18">
-        <v>3.499117</v>
+        <v>1.027597</v>
       </c>
       <c r="I18">
-        <v>0.2530619361939296</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="J18">
-        <v>0.2530619361939296</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.606916</v>
       </c>
       <c r="O18">
-        <v>0.5178605281857785</v>
+        <v>0.4529879287381047</v>
       </c>
       <c r="P18">
-        <v>0.5497132000752692</v>
+        <v>0.5105255284041104</v>
       </c>
       <c r="Q18">
-        <v>1.791126454796889</v>
+        <v>0.7890088434753334</v>
       </c>
       <c r="R18">
-        <v>16.120138093172</v>
+        <v>4.734053060852</v>
       </c>
       <c r="S18">
-        <v>0.1310507879411042</v>
+        <v>0.03802111382249842</v>
       </c>
       <c r="T18">
-        <v>0.1391114867624087</v>
+        <v>0.02938923789871517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5137985</v>
+      </c>
+      <c r="H19">
+        <v>1.027597</v>
+      </c>
+      <c r="I19">
+        <v>0.08393405521514537</v>
+      </c>
+      <c r="J19">
+        <v>0.05756663724649613</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.166372333333333</v>
-      </c>
-      <c r="H19">
-        <v>3.499117</v>
-      </c>
-      <c r="I19">
-        <v>0.2530619361939296</v>
-      </c>
-      <c r="J19">
-        <v>0.2530619361939296</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2105693333333333</v>
+        <v>0.3897316666666666</v>
       </c>
       <c r="N19">
-        <v>0.6317079999999999</v>
+        <v>1.169195</v>
       </c>
       <c r="O19">
-        <v>0.07100989871297453</v>
+        <v>0.1149643755911652</v>
       </c>
       <c r="P19">
-        <v>0.07537759016946438</v>
+        <v>0.1295669153035228</v>
       </c>
       <c r="Q19">
-        <v>0.2456022446484444</v>
+        <v>0.2002435457358333</v>
       </c>
       <c r="R19">
-        <v>2.210420201836</v>
+        <v>1.201461274415</v>
       </c>
       <c r="S19">
-        <v>0.01796990245724017</v>
+        <v>0.009649426248643568</v>
       </c>
       <c r="T19">
-        <v>0.01907519891391717</v>
+        <v>0.007458731612425383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.166372333333333</v>
+        <v>0.5137985</v>
       </c>
       <c r="H20">
-        <v>3.499117</v>
+        <v>1.027597</v>
       </c>
       <c r="I20">
-        <v>0.2530619361939296</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="J20">
-        <v>0.2530619361939296</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5154745000000001</v>
+        <v>1.1461935</v>
       </c>
       <c r="N20">
-        <v>1.030949</v>
+        <v>2.292387</v>
       </c>
       <c r="O20">
-        <v>0.1738324923894641</v>
+        <v>0.3381080658935905</v>
       </c>
       <c r="P20">
-        <v>0.1230164113920026</v>
+        <v>0.2540359069889083</v>
       </c>
       <c r="Q20">
-        <v>0.6012351953388334</v>
+        <v>0.58891250100975</v>
       </c>
       <c r="R20">
-        <v>3.607411172033001</v>
+        <v>2.355650004039</v>
       </c>
       <c r="S20">
-        <v>0.04399038709749432</v>
+        <v>0.02837878107139863</v>
       </c>
       <c r="T20">
-        <v>0.03113077125048915</v>
+        <v>0.01462399290521511</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.166372333333333</v>
+        <v>0.5137985</v>
       </c>
       <c r="H21">
-        <v>3.499117</v>
+        <v>1.027597</v>
       </c>
       <c r="I21">
-        <v>0.2530619361939296</v>
+        <v>0.08393405521514537</v>
       </c>
       <c r="J21">
-        <v>0.2530619361939296</v>
+        <v>0.05756663724649613</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2031823333333334</v>
+        <v>0.02787366666666667</v>
       </c>
       <c r="N21">
-        <v>0.6095470000000001</v>
+        <v>0.083621</v>
       </c>
       <c r="O21">
-        <v>0.06851879465005588</v>
+        <v>0.008222269211986729</v>
       </c>
       <c r="P21">
-        <v>0.07273326276543358</v>
+        <v>0.009266645020373741</v>
       </c>
       <c r="Q21">
-        <v>0.2369862522221111</v>
+        <v>0.01432144812283334</v>
       </c>
       <c r="R21">
-        <v>2.132876269999</v>
+        <v>0.08592868873700001</v>
       </c>
       <c r="S21">
-        <v>0.01733949883981741</v>
+        <v>0.0006901283980326839</v>
       </c>
       <c r="T21">
-        <v>0.01840602030112247</v>
+        <v>0.0005334495923799049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.7971606666666666</v>
+      </c>
+      <c r="H22">
+        <v>2.391482</v>
+      </c>
+      <c r="I22">
+        <v>0.1302240614002222</v>
+      </c>
+      <c r="J22">
+        <v>0.1339723420519182</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2905836666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.8717509999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.08571736056515281</v>
+      </c>
+      <c r="P22">
+        <v>0.09660500428308474</v>
+      </c>
+      <c r="Q22">
+        <v>0.2316418694424444</v>
+      </c>
+      <c r="R22">
+        <v>2.084776824982</v>
+      </c>
+      <c r="S22">
+        <v>0.01116246282530144</v>
+      </c>
+      <c r="T22">
+        <v>0.01294239867774046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.7971606666666666</v>
+      </c>
+      <c r="H23">
+        <v>2.391482</v>
+      </c>
+      <c r="I23">
+        <v>0.1302240614002222</v>
+      </c>
+      <c r="J23">
+        <v>0.1339723420519182</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.535638666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.606916</v>
+      </c>
+      <c r="O23">
+        <v>0.4529879287381047</v>
+      </c>
+      <c r="P23">
+        <v>0.5105255284041104</v>
+      </c>
+      <c r="Q23">
+        <v>1.224150743279111</v>
+      </c>
+      <c r="R23">
+        <v>11.017356689512</v>
+      </c>
+      <c r="S23">
+        <v>0.05898992784555044</v>
+      </c>
+      <c r="T23">
+        <v>0.06839630071759177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.7971606666666666</v>
+      </c>
+      <c r="H24">
+        <v>2.391482</v>
+      </c>
+      <c r="I24">
+        <v>0.1302240614002222</v>
+      </c>
+      <c r="J24">
+        <v>0.1339723420519182</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3897316666666666</v>
+      </c>
+      <c r="N24">
+        <v>1.169195</v>
+      </c>
+      <c r="O24">
+        <v>0.1149643755911652</v>
+      </c>
+      <c r="P24">
+        <v>0.1295669153035228</v>
+      </c>
+      <c r="Q24">
+        <v>0.3106787552211111</v>
+      </c>
+      <c r="R24">
+        <v>2.79610879699</v>
+      </c>
+      <c r="S24">
+        <v>0.0149711279058221</v>
+      </c>
+      <c r="T24">
+        <v>0.01735838309565547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.7971606666666666</v>
+      </c>
+      <c r="H25">
+        <v>2.391482</v>
+      </c>
+      <c r="I25">
+        <v>0.1302240614002222</v>
+      </c>
+      <c r="J25">
+        <v>0.1339723420519182</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.1461935</v>
+      </c>
+      <c r="N25">
+        <v>2.292387</v>
+      </c>
+      <c r="O25">
+        <v>0.3381080658935905</v>
+      </c>
+      <c r="P25">
+        <v>0.2540359069889083</v>
+      </c>
+      <c r="Q25">
+        <v>0.9137003745889999</v>
+      </c>
+      <c r="R25">
+        <v>5.482202247533999</v>
+      </c>
+      <c r="S25">
+        <v>0.04402980553283731</v>
+      </c>
+      <c r="T25">
+        <v>0.03403378542458731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7971606666666666</v>
+      </c>
+      <c r="H26">
+        <v>2.391482</v>
+      </c>
+      <c r="I26">
+        <v>0.1302240614002222</v>
+      </c>
+      <c r="J26">
+        <v>0.1339723420519182</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.02787366666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.083621</v>
+      </c>
+      <c r="O26">
+        <v>0.008222269211986729</v>
+      </c>
+      <c r="P26">
+        <v>0.009266645020373741</v>
+      </c>
+      <c r="Q26">
+        <v>0.02221979070244445</v>
+      </c>
+      <c r="R26">
+        <v>0.199978116322</v>
+      </c>
+      <c r="S26">
+        <v>0.001070737290710917</v>
+      </c>
+      <c r="T26">
+        <v>0.001241474136343216</v>
       </c>
     </row>
   </sheetData>
